--- a/products.xlsx
+++ b/products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emad/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emad/projects/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258518AB-C691-C049-BED8-CC1FFFB95BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E638A737-1CAC-F841-9FAA-E24BCCB93C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="33720" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
   <si>
     <t>barcode</t>
   </si>
@@ -61,12 +61,6 @@
     <t>مشروب غازي منعش بطعم كوكا كولا الأصلي</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
     <t>bottle</t>
   </si>
   <si>
@@ -85,12 +79,6 @@
     <t>أرز عطري طويل الحبة، معتق للحصول على قوام ونكهة مثالية</t>
   </si>
   <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>7.99</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
@@ -109,12 +97,6 @@
     <t>زيت زيتون بكر ممتاز معصور على البارد من زيتون البحر المتوسط</t>
   </si>
   <si>
-    <t>3.90</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
     <t>3045320094084</t>
   </si>
   <si>
@@ -130,12 +112,6 @@
     <t>شوكولاتة داكنة فاخرة بنسبة 70% من الكاكاو، بنكهة غنية وناعمة</t>
   </si>
   <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>3.99</t>
-  </si>
-  <si>
     <t>piece</t>
   </si>
   <si>
@@ -154,12 +130,6 @@
     <t>معكرونة سباغيتي إيطالية كلاسيكية مصنوعة من سميد القمح الصلب</t>
   </si>
   <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>1.79</t>
-  </si>
-  <si>
     <t>package</t>
   </si>
   <si>
@@ -178,12 +148,6 @@
     <t>أرز طويل الحبة بنكهة الياسمين الممتازة من تايلاند</t>
   </si>
   <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>6.99</t>
-  </si>
-  <si>
     <t>8001860225826</t>
   </si>
   <si>
@@ -199,12 +163,6 @@
     <t>مزيج فاخر من حبوب البن العربية 100% ذات الرائحة الغنية</t>
   </si>
   <si>
-    <t>5.75</t>
-  </si>
-  <si>
-    <t>10.99</t>
-  </si>
-  <si>
     <t>8076800195057</t>
   </si>
   <si>
@@ -220,12 +178,6 @@
     <t>مياه معدنية فوارة طبيعية من جبال الألب الإيطالية</t>
   </si>
   <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>1.49</t>
-  </si>
-  <si>
     <t>8000430138719</t>
   </si>
   <si>
@@ -241,12 +193,6 @@
     <t>كريمة البندق بالكاكاو للخبز والحلويات</t>
   </si>
   <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>4.99</t>
-  </si>
-  <si>
     <t>jar</t>
   </si>
   <si>
@@ -265,9 +211,6 @@
     <t>حلوى طرية بنكهة الفواكه على شكل دببة</t>
   </si>
   <si>
-    <t>1.99</t>
-  </si>
-  <si>
     <t>5000354004278</t>
   </si>
   <si>
@@ -283,9 +226,6 @@
     <t>كاتشب طماطم كلاسيكي مصنوع من طماطم ناضجة تحت أشعة الشمس</t>
   </si>
   <si>
-    <t>2.79</t>
-  </si>
-  <si>
     <t>8901030704994</t>
   </si>
   <si>
@@ -301,12 +241,6 @@
     <t>مزيج فاخر من أوراق شاي آسام ذات النكهة الغنية</t>
   </si>
   <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>3.49</t>
-  </si>
-  <si>
     <t>5000143934892</t>
   </si>
   <si>
@@ -322,12 +256,6 @@
     <t>شوكولاتة بالحليب كريمية مصنوعة بالحليب الطازج</t>
   </si>
   <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
     <t>8853601484515</t>
   </si>
   <si>
@@ -343,12 +271,6 @@
     <t>حليب جوز الهند الممتاز للمطبخ الآسيوي الأصيل</t>
   </si>
   <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>2.49</t>
-  </si>
-  <si>
     <t>can</t>
   </si>
   <si>
@@ -367,12 +289,6 @@
     <t>رقائق بطاطس بالنكهة الأصلية في علبة مميزة</t>
   </si>
   <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>2.99</t>
-  </si>
-  <si>
     <t>tube</t>
   </si>
   <si>
@@ -391,12 +307,6 @@
     <t>شوكولاتة بالبندق مع غلاف من الويفر وحشوة شوكولاتة</t>
   </si>
   <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>8.99</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
@@ -415,12 +325,6 @@
     <t>مياه معدنية طبيعية من جبال الألب الفرنسية</t>
   </si>
   <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>1.59</t>
-  </si>
-  <si>
     <t>8710398023756</t>
   </si>
   <si>
@@ -436,9 +340,6 @@
     <t>شاي أسود كلاسيكي بطعم ورائحة مميزة</t>
   </si>
   <si>
-    <t>3.29</t>
-  </si>
-  <si>
     <t>8801062628186</t>
   </si>
   <si>
@@ -452,9 +353,6 @@
   </si>
   <si>
     <t>نودلز كورية حارة سريعة التحضير مع مرق غني</t>
-  </si>
-  <si>
-    <t>1.89</t>
   </si>
   <si>
     <t>8710847134639</t>
@@ -504,8 +402,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,565 +723,565 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="61" customWidth="1"/>
-    <col min="5" max="5" width="55" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F7" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6.99</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="F8" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10.99</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
+      <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G8" t="s">
+      <c r="C11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="D11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F11" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="F12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F13" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G10" t="s">
+      <c r="B14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H10" t="s">
+      <c r="C14" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="D14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="D15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="E15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F15" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="D16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="E16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F16" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G13" t="s">
+      <c r="E17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="F17" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8.99</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F18" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="B19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F19" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F15" t="s">
+      <c r="B20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G15" t="s">
+      <c r="C20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H15" t="s">
+      <c r="D20" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="E20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F20" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" t="s">
-        <v>125</v>
+      <c r="F21" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
